--- a/XFP Files/Documents/CAST Pro Detectors.xlsx
+++ b/XFP Files/Documents/CAST Pro Detectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamie.bartleet\Documents\Dev\XFP\XFP Files\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC302D4C-B290-4415-AF44-BA0383F59333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9E14CA-DBC4-4B3B-8623-C73EAE475B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-3342" windowWidth="26301" windowHeight="14889" xr2:uid="{8328E981-A325-42DC-BAD4-EB248FB65D42}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{8328E981-A325-42DC-BAD4-EB248FB65D42}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -474,6 +474,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -483,24 +496,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,7 +836,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -875,13 +870,13 @@
       <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="24" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="J1" s="27" t="s">
         <v>42</v>
       </c>
@@ -911,17 +906,17 @@
       <c r="A2" s="28"/>
       <c r="B2" s="1"/>
       <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="32" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="25" t="s">
         <v>54</v>
       </c>
       <c r="I2" s="1"/>
@@ -943,7 +938,6 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30"/>
       <c r="E3" s="3">
         <v>512</v>
       </c>
@@ -955,7 +949,7 @@
         <f t="shared" ref="G3:G27" si="1">"0b"&amp;_xlfn.BASE(E3,2,10)</f>
         <v>0b1000000000</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="26">
         <v>161</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -990,7 +984,6 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
       <c r="E4" s="3">
         <v>513</v>
       </c>
@@ -1037,7 +1030,6 @@
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30"/>
       <c r="E5" s="3">
         <v>514</v>
       </c>
@@ -1084,7 +1076,6 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30"/>
       <c r="E6" s="3">
         <v>515</v>
       </c>
@@ -1131,7 +1122,6 @@
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="30"/>
       <c r="E7" s="3">
         <v>516</v>
       </c>
@@ -1178,7 +1168,6 @@
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="30"/>
       <c r="E8" s="3">
         <v>517</v>
       </c>
@@ -1225,7 +1214,6 @@
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30"/>
       <c r="E9" s="3">
         <v>518</v>
       </c>
@@ -1272,7 +1260,6 @@
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="30"/>
       <c r="E10" s="3">
         <v>519</v>
       </c>
@@ -1319,7 +1306,6 @@
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="30"/>
       <c r="E11" s="3">
         <v>520</v>
       </c>
@@ -1366,7 +1352,6 @@
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="30"/>
       <c r="E12" s="3">
         <v>521</v>
       </c>
@@ -1413,7 +1398,6 @@
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="30"/>
       <c r="E13" s="3">
         <v>522</v>
       </c>
@@ -1512,7 +1496,7 @@
       <c r="C15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="15">
         <v>524</v>
       </c>
@@ -1524,7 +1508,9 @@
         <f t="shared" si="1"/>
         <v>0b1000001100</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="15">
+        <v>201</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="18" t="s">
         <v>50</v>
@@ -1559,7 +1545,7 @@
       <c r="C16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="22">
         <v>525</v>
       </c>
@@ -1571,7 +1557,9 @@
         <f t="shared" si="1"/>
         <v>0b1000001101</v>
       </c>
-      <c r="H16" s="22"/>
+      <c r="H16" s="22">
+        <v>202</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="18" t="s">
         <v>50</v>
@@ -1606,7 +1594,7 @@
       <c r="C17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="22">
         <v>526</v>
       </c>
@@ -1618,7 +1606,9 @@
         <f t="shared" si="1"/>
         <v>0b1000001110</v>
       </c>
-      <c r="H17" s="22"/>
+      <c r="H17" s="22">
+        <v>203</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="18" t="s">
         <v>50</v>
@@ -1653,7 +1643,7 @@
       <c r="C18" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="22">
         <v>527</v>
       </c>
@@ -1665,7 +1655,9 @@
         <f t="shared" si="1"/>
         <v>0b1000001111</v>
       </c>
-      <c r="H18" s="22"/>
+      <c r="H18" s="22">
+        <v>204</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="18" t="s">
         <v>50</v>
@@ -1700,7 +1692,7 @@
       <c r="C19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="22">
         <v>528</v>
       </c>
@@ -1712,7 +1704,9 @@
         <f t="shared" si="1"/>
         <v>0b1000010000</v>
       </c>
-      <c r="H19" s="22"/>
+      <c r="H19" s="22">
+        <v>205</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="18" t="s">
         <v>50</v>
@@ -1747,7 +1741,7 @@
       <c r="C20" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="22">
         <v>529</v>
       </c>
@@ -1759,7 +1753,9 @@
         <f t="shared" si="1"/>
         <v>0b1000010001</v>
       </c>
-      <c r="H20" s="22"/>
+      <c r="H20" s="22">
+        <v>206</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="18" t="s">
         <v>50</v>
@@ -1794,7 +1790,7 @@
       <c r="C21" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="22">
         <v>530</v>
       </c>
@@ -1806,7 +1802,9 @@
         <f t="shared" si="1"/>
         <v>0b1000010010</v>
       </c>
-      <c r="H21" s="22"/>
+      <c r="H21" s="22">
+        <v>207</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="18" t="s">
         <v>50</v>
@@ -1841,7 +1839,7 @@
       <c r="C22" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="22">
         <v>531</v>
       </c>
@@ -1853,7 +1851,9 @@
         <f t="shared" si="1"/>
         <v>0b1000010011</v>
       </c>
-      <c r="H22" s="22"/>
+      <c r="H22" s="22">
+        <v>208</v>
+      </c>
       <c r="I22" s="16"/>
       <c r="J22" s="18" t="s">
         <v>50</v>
@@ -1888,7 +1888,7 @@
       <c r="C23" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="22">
         <v>608</v>
       </c>
@@ -1900,7 +1900,9 @@
         <f t="shared" si="1"/>
         <v>0b1001100000</v>
       </c>
-      <c r="H23" s="22"/>
+      <c r="H23" s="22">
+        <v>209</v>
+      </c>
       <c r="I23" s="16"/>
       <c r="J23" s="18" t="s">
         <v>50</v>
@@ -1935,7 +1937,7 @@
       <c r="C24" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="22">
         <v>609</v>
       </c>
@@ -1947,7 +1949,9 @@
         <f t="shared" si="1"/>
         <v>0b1001100001</v>
       </c>
-      <c r="H24" s="22"/>
+      <c r="H24" s="22">
+        <v>210</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="18" t="s">
         <v>50</v>
@@ -1982,7 +1986,7 @@
       <c r="C25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="22">
         <v>610</v>
       </c>
@@ -1994,7 +1998,9 @@
         <f t="shared" si="1"/>
         <v>0b1001100010</v>
       </c>
-      <c r="H25" s="22"/>
+      <c r="H25" s="22">
+        <v>211</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="18" t="s">
         <v>50</v>
@@ -2029,7 +2035,7 @@
       <c r="C26" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="22">
         <v>611</v>
       </c>
@@ -2041,7 +2047,9 @@
         <f t="shared" si="1"/>
         <v>0b1001100011</v>
       </c>
-      <c r="H26" s="22"/>
+      <c r="H26" s="22">
+        <v>212</v>
+      </c>
       <c r="I26" s="16"/>
       <c r="J26" s="18" t="s">
         <v>50</v>
@@ -2076,7 +2084,7 @@
       <c r="C27" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="22">
         <v>612</v>
       </c>
@@ -2088,7 +2096,9 @@
         <f t="shared" si="1"/>
         <v>0b1001100100</v>
       </c>
-      <c r="H27" s="22"/>
+      <c r="H27" s="22">
+        <v>213</v>
+      </c>
       <c r="I27" s="16"/>
       <c r="J27" s="18" t="s">
         <v>50</v>
@@ -2137,17 +2147,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
